--- a/docs/LTA1_C/LTA1_C_08.08.24_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_08.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731792320.3253562</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731792321.5382106</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731792320.3253562.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731792321.5382106.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.01</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.24</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.2300000000000182</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731792321.5769196</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731792321.9376984</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731792321.5769196.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731792321.9376984.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>283.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>283.41</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.08999999999997499</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731792322.7515047</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731792322.7515047.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731792322.7515047.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>282.72</v>
       </c>
-      <c r="J5" t="n">
-        <v>282.72</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>282.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.2200000000000273</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731792323.2658474</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731792324.162449</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792323.2658474.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792324.162449.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>283.01</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>283.24</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2300000000000182</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731792324.2003472</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731792324.4715934</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792324.2003472.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792324.4715934.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>283.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>283.41</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.08999999999997499</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731792325.122852</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731792325.3755934</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792325.122852.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792325.3755934.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>282.72</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>284.05</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.329999999999984</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731792325.3895278</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731792328.285658</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792325.3895278.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792328.285658.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>284.05</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>284.07</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.01999999999998181</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731792328.5547824</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731792329.4958048</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792328.5547824.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792329.4958048.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>283.26</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>283.73</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.4700000000000273</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731792329.5360372</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731792329.850949</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792329.5360372.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792329.850949.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>284</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>283.88</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -999,95 +1069,107 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731792330.5852513</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731792330.5852513.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731792330.5852513.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>283.14</v>
       </c>
-      <c r="J12" t="n">
-        <v>283.14</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>282.85</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.2899999999999636</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731792331.5078814</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731792331.7903821</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792331.5078814.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792331.7903821.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>130.67</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>130.08</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.589999999999975</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731792332.7558687</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731792333.5344677</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792332.7558687.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792333.5344677.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>130.7</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>130.1</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.5999999999999943</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731792334.4564493</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731792336.0053072</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792334.4564493.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792336.0053072.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>129.86</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>129.62</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.2400000000000091</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -1199,43 +1293,49 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731792337.8512263</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731792337.8512263.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731792337.8512263.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>129.13</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>129.13</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,51 +1343,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731792338.579683</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731792338.8379285</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792338.579683.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792338.8379285.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6523</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6500.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>22.5</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1295,51 +1401,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731792339.458267</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731792340.0637975</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792339.458267.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792340.0637975.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6532</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6510.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>21.5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1347,51 +1459,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731792340.9300387</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731792341.8404613</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792340.9300387.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792341.8404613.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6494</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6474</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-20</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -1399,95 +1517,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731792342.8547566</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731792342.8547566.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731792342.8547566.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6475</v>
       </c>
-      <c r="J20" t="n">
-        <v>6475</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>6462.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731792343.785035</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731792345.5702295</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792343.785035.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792345.5702295.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>509.85</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>510.3</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.4499999999999886</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1495,51 +1625,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731792346.9675055</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731792347.205867</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792346.9675055.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792347.205867.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>510.05</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>510.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.4499999999999886</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1547,51 +1683,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731792347.2218244</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731792347.7101338</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792347.2218244.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792347.7101338.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>510.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>510.95</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.4499999999999886</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1599,95 +1741,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731792348.4307148</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731792348.4307148.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731792348.4307148.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>510.25</v>
       </c>
-      <c r="J24" t="n">
-        <v>510.25</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>510.2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.05000000000001137</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731792348.7239552</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731792352.1839306</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792348.7239552.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792352.1839306.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>228.38</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>228.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1695,51 +1849,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731792352.808848</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731792353.514675</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792352.808848.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792353.514675.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>228.25</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>228.7</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.4499999999999886</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1747,51 +1907,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731792353.5296354</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731792353.9174974</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792353.5296354.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792353.9174974.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>228.7</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>228.41</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.289999999999992</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1799,51 +1965,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731792353.931833</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731792354.5687292</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792353.931833.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792354.5687292.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>228.41</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>229.15</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.7400000000000091</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1851,51 +2023,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731792355.1414785</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731792355.2253428</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792355.1414785.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792355.2253428.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>228.45</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>228.91</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.460000000000008</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1903,51 +2081,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731792355.4142387</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731792355.5757918</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792355.4142387.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792355.5757918.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1011.2</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1015</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1955,51 +2139,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731792356.02576</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731792359.6845746</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792356.02576.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792359.6845746.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1017.4</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1020.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-3.399999999999977</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -2007,51 +2197,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731792359.9980986</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731792360.7060032</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792359.9980986.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792360.7060032.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1017.2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1021.8</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>4.599999999999909</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2059,51 +2255,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731792360.7997806</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731792361.1710675</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792360.7997806.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792361.1710675.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1023</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1021.4</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2111,51 +2313,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731792362.6358519</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731792362.8804216</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792362.6358519.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792362.8804216.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>11.87</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>11.881</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.01100000000000101</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2163,51 +2371,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731792363.1491532</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731792367.056641</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792363.1491532.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792367.056641.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>11.899</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>11.939</v>
       </c>
-      <c r="K35" t="n">
-        <v>-0.03999999999999915</v>
-      </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
+        <v>-0.04000000000000092</v>
+      </c>
+      <c r="N35" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -2215,51 +2429,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731792367.339355</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731792367.6372714</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792367.339355.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792367.6372714.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>11.93</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>11.935</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.005000000000000782</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2267,51 +2487,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731792367.8658524</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731792368.1161387</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792367.8658524.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792368.1161387.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>11.955</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>11.953</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.002000000000000668</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2319,51 +2545,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731792368.5714927</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731792368.6967933</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792368.5714927.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792368.6967933.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>11.937</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>11.955</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.01800000000000068</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2371,95 +2603,107 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731792369.0258706</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731792369.0258706.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731792369.0258706.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>11.972</v>
       </c>
-      <c r="J39" t="n">
-        <v>11.972</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>11.969</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.003000000000000114</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731792369.7144444</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731792370.0730832</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792369.7144444.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792370.0730832.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>124.66</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>125.02</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2467,51 +2711,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731792370.4707515</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731792371.3578696</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792370.4707515.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792371.3578696.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>124.68</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>125.04</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2519,51 +2769,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731792371.7839935</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731792373.774386</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792371.7839935.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792373.774386.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>124.68</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>124.12</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.5600000000000023</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -2571,95 +2827,107 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731792374.0637739</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731792374.0637739.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731792374.0637739.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>123.68</v>
       </c>
-      <c r="J43" t="n">
-        <v>123.68</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>123.5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.1800000000000068</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731792375.0911725</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731792375.6539872</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792375.0911725.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792375.6539872.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>160.66</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>161.5</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.8400000000000034</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -2667,51 +2935,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731792375.9407897</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731792377.8276014</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792375.9407897.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792377.8276014.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>162.18</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>161.9</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2719,51 +2993,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731792379.1870656</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731792380.2779922</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792379.1870656.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792380.2779922.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>161.02</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>160.56</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.460000000000008</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -2771,95 +3051,107 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731792381.8487506</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731792381.8487506.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731792381.8487506.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>160.72</v>
       </c>
-      <c r="J47" t="n">
-        <v>160.72</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>160.76</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.03999999999999204</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731792382.3136458</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731792382.605237</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792382.3136458.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792382.605237.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>49.325</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>49.485</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2867,51 +3159,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731792382.6877213</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731792384.2987943</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792382.6877213.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792384.2987943.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>49.685</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>49.48</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.2050000000000054</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -2919,51 +3217,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731792384.6237576</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731792384.7375214</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792384.6237576.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792384.7375214.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>49.335</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>49.495</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2971,51 +3275,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731792385.2138965</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731792386.6530614</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792385.2138965.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792386.6530614.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>49.335</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>49.21</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.125</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -3023,51 +3333,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731792389.1459098</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731792391.1189556</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792389.1459098.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792391.1189556.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1389</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1394.2</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-5.200000000000045</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -3075,51 +3391,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731792391.9542768</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731792392.9383261</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792391.9542768.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792392.9383261.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1387</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1388.8</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3127,51 +3449,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731792393.2415113</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731792394.4174469</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792393.2415113.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792394.4174469.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1390</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1393.8</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3179,51 +3507,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731792394.7321718</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731792396.7320158</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792394.7321718.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792396.7320158.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>61.52</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>61.27</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.25</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -3231,51 +3565,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731792397.2208369</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731792399.690939</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792397.2208369.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792399.690939.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>60.98</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>60.92</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.05999999999999517</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -3283,51 +3623,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731792403.673259</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731792406.475249</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731792403.673259.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731792406.475249.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>98.14</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>97.8</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.3400000000000034</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -3335,51 +3681,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731792408.0480146</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731792408.150467</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792408.0480146.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792408.150467.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>56.48</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>56.17</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.3099999999999952</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -3387,51 +3739,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731792408.360052</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731792408.72102</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792408.360052.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792408.72102.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>55.99</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>56.18</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -3439,51 +3797,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731792409.4293618</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731792412.028728</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792409.4293618.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792412.028728.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>55.95</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>55.9</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.05000000000000426</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -3491,95 +3855,107 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731792413.0364146</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731792413.0364146.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731792413.0364146.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>55.68</v>
       </c>
-      <c r="J61" t="n">
-        <v>55.68</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>55.72</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.03999999999999915</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731792413.2918434</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731792417.9262047</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792413.2918434.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792417.9262047.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>147.14</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>152.92</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-5.780000000000001</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-3.93</v>
       </c>
     </row>
@@ -3587,51 +3963,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731792418.708856</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731792418.9687362</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792418.708856.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792418.9687362.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>154.24</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>153.4</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.8400000000000034</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -3639,95 +4021,107 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731792419.7663364</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731792419.7663364.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731792419.7663364.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>153.22</v>
       </c>
-      <c r="J64" t="n">
-        <v>153.22</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>152.74</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.4799999999999898</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731792420.6270144</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731792420.886166</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792420.6270144.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792420.886166.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>20.313</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>20.441</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1280000000000001</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -3735,51 +4129,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731792421.0179868</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731792421.2709477</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792421.0179868.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792421.2709477.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>20.519</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>20.402</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.1169999999999973</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -3787,51 +4187,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731792421.9297998</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731792422.448846</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792421.9297998.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792422.448846.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>20.603</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>20.446</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.157</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -3839,51 +4245,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731792423.3532033</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731792424.8609617</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792423.3532033.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792424.8609617.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>20.351</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>20.289</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.06199999999999761</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -3891,95 +4303,107 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731792425.2219973</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731792425.2219973.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731792425.2219973.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>20.28</v>
       </c>
-      <c r="J69" t="n">
-        <v>20.28</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>20.161</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.1189999999999998</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731792426.4504411</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731792426.8642447</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792426.4504411.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792426.8642447.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>679.1</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>675.8</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>3.300000000000068</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -3987,51 +4411,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731792427.1501224</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731792429.1017191</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792427.1501224.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792429.1017191.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>678.65</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>678.3</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.3500000000000227</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4039,51 +4469,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731792430.1942296</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731792431.2757516</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792430.1942296.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731792431.2757516.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>677.1</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>678.75</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>1.649999999999977</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -4091,95 +4527,107 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731792431.6291869</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731792431.6291869.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731792431.6291869.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>676.6</v>
       </c>
-      <c r="J73" t="n">
-        <v>676.6</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>675.7</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.8999999999999773</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731792432.84161</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731792433.6514385</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792432.84161.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792433.6514385.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>155.49</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>156.64</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>1.149999999999977</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -4187,51 +4635,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731792433.9122565</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731792434.0730689</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792433.9122565.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792434.0730689.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>157.78</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>156.49</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>1.289999999999992</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.8200000000000001</v>
       </c>
     </row>
@@ -4239,51 +4693,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731792435.202874</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731792435.8312917</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792435.202874.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792435.8312917.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>157.83</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>156.46</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>1.370000000000005</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.8699999999999999</v>
       </c>
     </row>
@@ -4291,51 +4751,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731792436.7447596</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731792437.8577836</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792436.7447596.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792437.8577836.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>155.11</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>154.91</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.2000000000000171</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -4343,43 +4809,49 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731792439.074252</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731792439.074252.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731792439.074252.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>154.54</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>154.54</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4387,51 +4859,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731792439.3769338</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731792439.9533563</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792439.3769338.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792439.9533563.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>0.09724000000000001</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>0.09748000000000001</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.0002400000000000041</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -4439,51 +4917,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731792440.1122408</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731792440.6513839</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792440.1122408.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792440.6513839.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>0.098</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>0.09760000000000001</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.0003999999999999976</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -4491,51 +4975,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731792441.0180392</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731792442.047035</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792441.0180392.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792442.047035.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>0.09796000000000001</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>0.09770000000000001</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.0002599999999999963</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -4543,51 +5033,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731792443.4516385</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731792444.207478</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792443.4516385.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792444.207478.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>0.09728000000000001</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>0.0974</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.0001199999999999951</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4595,51 +5091,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731792444.5156062</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731792444.8618724</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792444.5156062.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/FEES1731792444.8618724.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>0.09728000000000001</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>0.09772</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.0004399999999999959</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -4647,95 +5149,107 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731792445.1199496</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731792445.1199496.png</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731792445.1199496.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>0.09724000000000001</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.09724000000000001</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>0.097</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-0.0002400000000000041</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731792446.1883824</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731792447.6597416</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792446.1883824.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792447.6597416.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>2943.65</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>2941.3</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>2.349999999999909</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -4743,51 +5257,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731792447.9647737</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731792448.1831949</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792447.9647737.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731792448.1831949.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>2933.55</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>2941.9</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>8.349999999999909</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4849,19 +5369,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.220000000000027</v>
+        <v>1.930000000000064</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3171428571428611</v>
+        <v>0.2757142857142948</v>
       </c>
       <c r="E2" t="n">
-        <v>0.78</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -4871,19 +5391,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.003999999999996007</v>
+        <v>-0.0009999999999976694</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0006666666666660012</v>
+        <v>-0.0001666666666662782</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03999999999999998</v>
+        <v>-0.009999999999999981</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -4893,19 +5413,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001459999999999989</v>
+        <v>0.001219999999999985</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002433333333333315</v>
+        <v>0.0002033333333333308</v>
       </c>
       <c r="E4" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -4915,19 +5435,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3399999999999999</v>
+        <v>0.2210000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06799999999999998</v>
+        <v>0.04420000000000002</v>
       </c>
       <c r="E5" t="n">
-        <v>1.66</v>
+        <v>1.07</v>
       </c>
       <c r="F5" t="n">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -4981,19 +5501,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1599999999999966</v>
+        <v>-0.02000000000001023</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03999999999999915</v>
+        <v>-0.005000000000002558</v>
       </c>
       <c r="E8" t="n">
-        <v>0.13</v>
+        <v>-0.01999999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -5003,19 +5523,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="E9" t="n">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10">
@@ -5047,19 +5567,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.300000000000068</v>
+        <v>4.400000000000091</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>1.325000000000017</v>
+        <v>1.100000000000023</v>
       </c>
       <c r="E11" t="n">
-        <v>0.78</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="12">
@@ -5091,19 +5611,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6599999999999966</v>
+        <v>0.6999999999999886</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1649999999999991</v>
+        <v>0.1749999999999972</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="14">
@@ -5135,16 +5655,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4499999999999886</v>
+        <v>-0.5</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1124999999999972</v>
+        <v>-0.125</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.09</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F15" t="n">
         <v>-0.02</v>
@@ -5157,19 +5677,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4499999999999886</v>
+        <v>0.4899999999999878</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1124999999999972</v>
+        <v>0.1224999999999969</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="17">
@@ -5179,19 +5699,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.939999999999998</v>
+        <v>-5.419999999999987</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.646666666666666</v>
+        <v>-1.806666666666662</v>
       </c>
       <c r="E17" t="n">
-        <v>-3.39</v>
+        <v>-3.7</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.13</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="18">
@@ -5223,19 +5743,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3199999999999932</v>
+        <v>0.09999999999996589</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1066666666666644</v>
+        <v>0.03333333333332197</v>
       </c>
       <c r="E19" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20">
